--- a/output/fit_clients/fit_round_309.xlsx
+++ b/output/fit_clients/fit_round_309.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2391486171.97037</v>
+        <v>1555450705.849969</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08576304991602522</v>
+        <v>0.1034107965246807</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02802752354684524</v>
+        <v>0.02813115409656035</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1195743134.270074</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2367464394.89387</v>
+        <v>2484160000.004936</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1510674233564868</v>
+        <v>0.1331260722358552</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03477223756016572</v>
+        <v>0.03249934624540415</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1183732294.415145</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4237289593.873927</v>
+        <v>4967896085.043126</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1316675253357873</v>
+        <v>0.1080565809373701</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02749824034639255</v>
+        <v>0.02764749406398356</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>111</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2118644827.92973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3494338987.831171</v>
+        <v>2953998620.824587</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07884952499269568</v>
+        <v>0.09440696281060112</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03997189875886583</v>
+        <v>0.03874165867075278</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>116</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1747169531.086466</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2437189247.917253</v>
+        <v>2590946726.310533</v>
       </c>
       <c r="F6" t="n">
-        <v>0.102315960309153</v>
+        <v>0.100201931882903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05131469893956526</v>
+        <v>0.04800190071138032</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1218594606.240747</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2858118498.952793</v>
+        <v>2261608699.22967</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09649652336675363</v>
+        <v>0.09351954896704023</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03177978015459417</v>
+        <v>0.03657172893806984</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>97</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1429059228.017249</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3328789755.90204</v>
+        <v>2714169881.015886</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2072575169687276</v>
+        <v>0.1511019495282888</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03215043381564806</v>
+        <v>0.02488074950197888</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>98</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1664394969.081014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1755659739.538244</v>
+        <v>2140797921.02745</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1587293074520629</v>
+        <v>0.1691537160607248</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02705973704461742</v>
+        <v>0.03555799297612059</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>877829930.2751349</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5499770315.014839</v>
+        <v>4290047387.923357</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1958105881985289</v>
+        <v>0.1809970097350435</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04720319219779877</v>
+        <v>0.03316025257065008</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>130</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2749885295.550319</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3943075103.572291</v>
+        <v>4198106867.5395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1583760085481989</v>
+        <v>0.125835653437379</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04966920923293217</v>
+        <v>0.04983819409048221</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>128</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1971537560.539154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2491437437.058442</v>
+        <v>2247168219.077508</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1862616614020912</v>
+        <v>0.1524216527127797</v>
       </c>
       <c r="G12" t="n">
-        <v>0.044571338762655</v>
+        <v>0.04897484560011019</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>105</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1245718689.95758</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4189830487.611963</v>
+        <v>4864096688.717688</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07218561460569042</v>
+        <v>0.06132846991423756</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01965208617598015</v>
+        <v>0.01901007434356894</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>103</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2094915289.095073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3317051470.911828</v>
+        <v>2859586367.870821</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1210444521609036</v>
+        <v>0.1401620275209969</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03179241881234561</v>
+        <v>0.03321705606183503</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1658525746.941075</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1806058171.076315</v>
+        <v>1371043133.930454</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08015298679326514</v>
+        <v>0.08246933769085964</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04169316966631873</v>
+        <v>0.04223819293735517</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>903029240.4354666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2713224771.397285</v>
+        <v>2130959023.968582</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1151052017820622</v>
+        <v>0.1141949514712979</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04780705684766562</v>
+        <v>0.04330279663736415</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>59</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1356612397.481162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5244465890.96101</v>
+        <v>5059687722.040504</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1729225724452382</v>
+        <v>0.1378898677729658</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04686270246819248</v>
+        <v>0.04637296029830201</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>90</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2622232918.590264</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2989835984.507422</v>
+        <v>3508695591.963351</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1586838537343179</v>
+        <v>0.1462370268489019</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03240016535817155</v>
+        <v>0.02370890912492481</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>101</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1494918023.305101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1121826864.887278</v>
+        <v>962547008.8831705</v>
       </c>
       <c r="F19" t="n">
-        <v>0.152585071191985</v>
+        <v>0.1480276777279958</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02626855504002745</v>
+        <v>0.02239242288757508</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>560913491.3412218</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2222449418.479341</v>
+        <v>2086638521.817648</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1305990071115087</v>
+        <v>0.1617788922449884</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02429112071117793</v>
+        <v>0.02231434690632332</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1111224711.904121</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2709231019.748539</v>
+        <v>2496885691.988995</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09409265263605318</v>
+        <v>0.08143272188646544</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04120667665783463</v>
+        <v>0.03919048873620486</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>26</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1354615478.003673</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3704149913.413143</v>
+        <v>3655434487.813625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1253036499256685</v>
+        <v>0.09766980183720318</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03565380132007902</v>
+        <v>0.05087874348402999</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>86</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1852074976.074244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1012551657.886147</v>
+        <v>1222983412.898284</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1330285754207345</v>
+        <v>0.1179318020075836</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03684807212476925</v>
+        <v>0.03716379954416588</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>506275897.0178452</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2795046687.802065</v>
+        <v>3854511526.894149</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1306683006341141</v>
+        <v>0.1353126967094732</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02374256396279984</v>
+        <v>0.03591414811654414</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>90</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1397523392.910627</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1297733609.515871</v>
+        <v>1314511244.608478</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1058133656724737</v>
+        <v>0.1041895100635674</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01973367199969316</v>
+        <v>0.0258922174967483</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>648866800.2395881</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1087859676.879522</v>
+        <v>1148491899.946038</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08825063071698591</v>
+        <v>0.08075795387121067</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03360136803599342</v>
+        <v>0.0252406014759831</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>543929832.0133976</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4209165011.118803</v>
+        <v>4058082270.614419</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1080687862619758</v>
+        <v>0.1002306455955951</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02263652749058531</v>
+        <v>0.02519398706388093</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>74</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2104582505.303218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3491031977.119494</v>
+        <v>3616235980.181901</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1462971802771925</v>
+        <v>0.1020120508553901</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04549135778685484</v>
+        <v>0.0460733669608687</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>99</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1745516042.438058</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4835289565.367386</v>
+        <v>5509573586.55201</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1093027513660774</v>
+        <v>0.1486963729278691</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03015605501012569</v>
+        <v>0.02812902976170329</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>136</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2417644741.662471</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2257390434.237284</v>
+        <v>2102182063.094028</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09746489987200301</v>
+        <v>0.09622913535620034</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02722811850551798</v>
+        <v>0.02661346315778158</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1128695283.927468</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1127712849.023079</v>
+        <v>946608343.9716883</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08717811751768971</v>
+        <v>0.06943844069739484</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0377043993862682</v>
+        <v>0.05021857787031137</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>563856392.9836261</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1503056473.641805</v>
+        <v>1803824981.327435</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08520892574536956</v>
+        <v>0.09329588592862356</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02988561435312456</v>
+        <v>0.02383126257305938</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>751528305.8052508</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2503725765.356458</v>
+        <v>2656191849.123636</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1992694617138115</v>
+        <v>0.1646038907970554</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05509174328342722</v>
+        <v>0.04508220434082006</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>92</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1251862920.574635</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1460188761.226349</v>
+        <v>1367075439.919044</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1197176085794678</v>
+        <v>0.0917009226526332</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02823082339339341</v>
+        <v>0.02452569549613953</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>730094342.9839562</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1247423551.553464</v>
+        <v>1225745540.304855</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1133717151571779</v>
+        <v>0.09324613859782394</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03558410655236099</v>
+        <v>0.0288998347457369</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>623711740.0952551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1987561963.970927</v>
+        <v>2891133209.109214</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1540727266928615</v>
+        <v>0.1166859908695495</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02278889204414747</v>
+        <v>0.01782853519483596</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>77</v>
-      </c>
-      <c r="J36" t="n">
-        <v>993781045.02316</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2561530553.53876</v>
+        <v>1889073072.381127</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09789564980188856</v>
+        <v>0.1051994867891237</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03499509721142421</v>
+        <v>0.03000680899013637</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>81</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1280765381.330292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1844008878.898261</v>
+        <v>2131902515.728315</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09304810125708696</v>
+        <v>0.1180827443410201</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0248467748103639</v>
+        <v>0.03414638344544436</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>922004440.1178457</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1903837348.842414</v>
+        <v>1409551033.52614</v>
       </c>
       <c r="F39" t="n">
-        <v>0.151061393629022</v>
+        <v>0.1525096154052818</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02281940984889835</v>
+        <v>0.02691917384743767</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>951918683.5629281</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1785172373.050743</v>
+        <v>1720926429.805388</v>
       </c>
       <c r="F40" t="n">
-        <v>0.100009776018428</v>
+        <v>0.09900608440322022</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05070784276426309</v>
+        <v>0.04696220091847987</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>892586081.3290374</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2541562641.851831</v>
+        <v>2596982900.898475</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1568634275308544</v>
+        <v>0.1416510396112526</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04072295608755001</v>
+        <v>0.03226018055347429</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>77</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1270781342.116494</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4291229336.623374</v>
+        <v>3597978641.037407</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07911079337285619</v>
+        <v>0.0916893256049949</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03727667388566042</v>
+        <v>0.04131425673649106</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2145614717.637347</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2583593026.423385</v>
+        <v>2241108980.126153</v>
       </c>
       <c r="F43" t="n">
-        <v>0.132656894917797</v>
+        <v>0.1841812618918667</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02193819747504709</v>
+        <v>0.01950107445932119</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>111</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1291796553.45713</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2281295202.365178</v>
+        <v>2343483835.887317</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09770391215222574</v>
+        <v>0.07984785604356034</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03494897372922021</v>
+        <v>0.03233420318543815</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1140647763.652955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1691946981.57153</v>
+        <v>1700763125.926518</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1393715660585011</v>
+        <v>0.1182896795572413</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05353107359376292</v>
+        <v>0.05175933666983746</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>845973450.6097354</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4046967849.730659</v>
+        <v>4348434340.975549</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1639491358440583</v>
+        <v>0.1521955549411936</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04051690640123424</v>
+        <v>0.06013689171985095</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>110</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2023483897.081407</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3380261780.559011</v>
+        <v>4730454282.102491</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1967646706745072</v>
+        <v>0.1959346392006915</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03779580158838711</v>
+        <v>0.04012033744360246</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>83</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1690130854.294883</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3952398887.201547</v>
+        <v>4553735004.353978</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09805043205468661</v>
+        <v>0.08994361604513063</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03851527376039551</v>
+        <v>0.02765865598267679</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>102</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1976199480.76476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1535603416.54723</v>
+        <v>1405432980.383245</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1738870218259793</v>
+        <v>0.1696886709719381</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03232526248267593</v>
+        <v>0.03234745171113384</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>767801734.758983</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3792263922.70008</v>
+        <v>2651009374.091989</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1091593411800992</v>
+        <v>0.1659520981627615</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03942577372597023</v>
+        <v>0.04431526212201135</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>105</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1896131964.805292</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1343110376.504489</v>
+        <v>950296092.5325357</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1403117767319055</v>
+        <v>0.1697871069777367</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05359466362314801</v>
+        <v>0.04376779970641551</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>671555216.6184521</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4252658479.589303</v>
+        <v>4312535535.671525</v>
       </c>
       <c r="F52" t="n">
-        <v>0.110949979435347</v>
+        <v>0.1167787191987427</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03731497356812086</v>
+        <v>0.04435136355071907</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>127</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2126329281.404264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3262997024.951201</v>
+        <v>3081511230.14699</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1618585238292361</v>
+        <v>0.1272793273109035</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02877784237083554</v>
+        <v>0.02736286522058375</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>88</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1631498526.782171</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3477572450.840694</v>
+        <v>4422459459.606518</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1247043705511437</v>
+        <v>0.1528335623439267</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03684003963834082</v>
+        <v>0.04547127471404436</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1738786248.478789</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3297728313.886592</v>
+        <v>3117408001.596593</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1488416528713425</v>
+        <v>0.1640597990839344</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02028603201423593</v>
+        <v>0.02409856983468624</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1648864100.851357</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1790647578.786325</v>
+        <v>1571083302.475869</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1333260391714895</v>
+        <v>0.1089097136949333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05038524952599431</v>
+        <v>0.04920687101746759</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>895323788.5962596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3941692296.510108</v>
+        <v>3061169048.057938</v>
       </c>
       <c r="F57" t="n">
-        <v>0.166817293316102</v>
+        <v>0.1477823016841274</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01773938172709284</v>
+        <v>0.01768108526548655</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>98</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1970846231.730033</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1842218464.980484</v>
+        <v>1843578916.883666</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1955836012447768</v>
+        <v>0.1574897742223613</v>
       </c>
       <c r="G58" t="n">
-        <v>0.034311412593833</v>
+        <v>0.03489542152522038</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>921109232.4019588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4518586168.368591</v>
+        <v>3976559536.944686</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1201897967426941</v>
+        <v>0.08562118562865512</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04451961267130636</v>
+        <v>0.03579045292034675</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2259293035.117754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3251737984.187919</v>
+        <v>3017045504.043799</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1946608837999072</v>
+        <v>0.1411184673615</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02196010711914837</v>
+        <v>0.02750904095627489</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>95</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1625869088.853469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3394440588.245493</v>
+        <v>2838816678.32539</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1101151478905506</v>
+        <v>0.1412466103296133</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02437405098814772</v>
+        <v>0.02504620815048151</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>105</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1697220237.398323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2119176386.556205</v>
+        <v>1601993489.830757</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1443661652317698</v>
+        <v>0.1263789149831235</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04862333850219563</v>
+        <v>0.0380799858708397</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1059588269.240218</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3999968346.250621</v>
+        <v>4579865585.695943</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08262265817661542</v>
+        <v>0.09480664345397502</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03422206182216059</v>
+        <v>0.0330265333363716</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>87</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1999984235.534384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4850516941.574323</v>
+        <v>4881985557.700217</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1541385169316297</v>
+        <v>0.1226659129589932</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02825610232635237</v>
+        <v>0.02529981335610097</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>96</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2425258566.477863</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4291415604.98574</v>
+        <v>5461037377.728771</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1470895644127627</v>
+        <v>0.1733257605912359</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03156918896081653</v>
+        <v>0.01972745283200725</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>111</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2145707803.675004</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4008095441.067934</v>
+        <v>4067045988.926934</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1550299809190368</v>
+        <v>0.11377606974902</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04486136825533519</v>
+        <v>0.04058862226239827</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>90</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2004047694.524504</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3352905020.004786</v>
+        <v>2719993031.551664</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07519349947901652</v>
+        <v>0.09128260926317247</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03791872107945625</v>
+        <v>0.03766746724392266</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>99</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1676452498.425281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4006152249.851749</v>
+        <v>4418652401.5921</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1144999731313747</v>
+        <v>0.1159184225109807</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04104404903846876</v>
+        <v>0.03226846461212024</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>99</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2003076121.100027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1990440963.681386</v>
+        <v>1848332812.460121</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1773199533995203</v>
+        <v>0.1621678814634762</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04589959848313468</v>
+        <v>0.04456363989464395</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>995220485.5876641</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3436485190.039683</v>
+        <v>2939088318.584817</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09727096387622354</v>
+        <v>0.09249202947425843</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04123529536010426</v>
+        <v>0.03355135616701092</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>88</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1718242600.377486</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3721461523.513569</v>
+        <v>5294224913.637647</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1659083817266199</v>
+        <v>0.1559402490836744</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0211180794908896</v>
+        <v>0.02983039237389312</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>113</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1860730772.000896</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1653890701.735461</v>
+        <v>1976310544.294028</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09702328560267963</v>
+        <v>0.08549577669341163</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03481814771880839</v>
+        <v>0.03381883699008831</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>826945353.0464425</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2640015434.205881</v>
+        <v>2580941285.530271</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09420778816580913</v>
+        <v>0.09653253779722842</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04147307145211013</v>
+        <v>0.03984180684823975</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>117</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1320007746.051455</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3997661205.766155</v>
+        <v>3603864537.059806</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1491811544747221</v>
+        <v>0.144998036819535</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02885874712715674</v>
+        <v>0.02687878879893626</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>105</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1998830582.001782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1848933707.989082</v>
+        <v>2125543394.370071</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1090330599246403</v>
+        <v>0.1084286298990413</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02654509964543424</v>
+        <v>0.02643477356648017</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>924466832.3440964</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4739983400.786139</v>
+        <v>3335541130.286601</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0816825447322654</v>
+        <v>0.08690326209304323</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02354102624566298</v>
+        <v>0.02892981365313417</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2369991716.140507</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2106815853.791579</v>
+        <v>1989212909.445879</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1336263098899857</v>
+        <v>0.1489750138690314</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02881879045601862</v>
+        <v>0.02346974054905366</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1053408004.161836</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4014183495.463291</v>
+        <v>3324341498.505658</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1334326302482255</v>
+        <v>0.1164895846976769</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04122952477944883</v>
+        <v>0.05240890177878394</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>107</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2007091712.446196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1776383534.281932</v>
+        <v>1780963788.277001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1256547145533679</v>
+        <v>0.1264932863655648</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03846701699963914</v>
+        <v>0.02919045081728628</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>888191849.7121761</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5515548153.682633</v>
+        <v>3785600595.786058</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09127703544067325</v>
+        <v>0.07346652154197209</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03648698958898394</v>
+        <v>0.0334446074576287</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>64</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2757774151.678407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3717482511.927293</v>
+        <v>3405746861.346755</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1083865814515446</v>
+        <v>0.1258656495239389</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02141435652721375</v>
+        <v>0.02095277695917786</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1858741208.69761</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4021216285.130016</v>
+        <v>5415165358.720415</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1942487451375648</v>
+        <v>0.1814953724137916</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01920247928628728</v>
+        <v>0.02961038712526803</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>108</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2010608181.13827</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1952059542.191103</v>
+        <v>1604374284.29919</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1269934555248223</v>
+        <v>0.1057645168432493</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03979705585654689</v>
+        <v>0.03386315868001574</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>976029750.4076734</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2044309142.234625</v>
+        <v>2093944122.578478</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1177256990533933</v>
+        <v>0.08429091636002105</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03373281359172787</v>
+        <v>0.03215915811045503</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1022154569.643467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2398538545.663543</v>
+        <v>2370974342.901947</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1491923923901853</v>
+        <v>0.1780393944764161</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03605054674753384</v>
+        <v>0.04416705312798202</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>117</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1199269266.568192</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2680579110.487928</v>
+        <v>2772995482.178547</v>
       </c>
       <c r="F86" t="n">
-        <v>0.133958174076414</v>
+        <v>0.1282262557041409</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02264280963136256</v>
+        <v>0.01935535013952538</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>41</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1340289677.498181</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1320546679.192968</v>
+        <v>1109052603.420748</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1709095094413844</v>
+        <v>0.1558804404728144</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04009307527330253</v>
+        <v>0.04425884349025614</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>660273426.0940769</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2372330195.630957</v>
+        <v>2267386523.724817</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1151566241454121</v>
+        <v>0.1645697785869403</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0267599684033976</v>
+        <v>0.03752902859073617</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>123</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1186165066.23976</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3279767976.41067</v>
+        <v>2840734650.4224</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1528158587014451</v>
+        <v>0.1209302403939997</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02968142878452937</v>
+        <v>0.03207733154638234</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>104</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1639884005.823874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1803853404.723865</v>
+        <v>1531554176.11904</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08507054479220198</v>
+        <v>0.0845265014778049</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04270554195759368</v>
+        <v>0.04883715306357703</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>901926736.6900609</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1301603637.752121</v>
+        <v>1698950066.021837</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1269905879991373</v>
+        <v>0.1306599883389643</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03900529180925574</v>
+        <v>0.05196061896156735</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>650801884.2350355</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1815376927.032919</v>
+        <v>1864553063.860105</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08999435506960074</v>
+        <v>0.0803158446892331</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0421549618128929</v>
+        <v>0.03612188498141088</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>81</v>
-      </c>
-      <c r="J92" t="n">
-        <v>907688395.7583901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3587614748.545103</v>
+        <v>3341261635.708692</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1329075541735495</v>
+        <v>0.0929684571339703</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04914629814595932</v>
+        <v>0.04061241826295942</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1793807401.559356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1598566950.767755</v>
+        <v>2329941117.866861</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1395215765211992</v>
+        <v>0.1361555053830472</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03902357562783128</v>
+        <v>0.03561873347046962</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>799283421.5383985</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2584926953.136392</v>
+        <v>2304005747.162478</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1029838436192974</v>
+        <v>0.1174431436631754</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04822494762749567</v>
+        <v>0.04349085760569948</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>75</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1292463506.49187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2409114864.981355</v>
+        <v>1939504933.933137</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09166117961047021</v>
+        <v>0.1217295895583277</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0373717358393618</v>
+        <v>0.04020596496960877</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1204557375.809118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4341212842.090346</v>
+        <v>4641112910.274425</v>
       </c>
       <c r="F97" t="n">
-        <v>0.17552202223172</v>
+        <v>0.164606610192464</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02911199551973846</v>
+        <v>0.01858929238886392</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>99</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2170606504.867307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3181638840.850143</v>
+        <v>3008308321.443262</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1266738541961735</v>
+        <v>0.1166593440325128</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02173588425421174</v>
+        <v>0.03049696378648708</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>82</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1590819417.445032</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2223588952.590597</v>
+        <v>2351303451.910965</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1061993071283916</v>
+        <v>0.1055647944710165</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02869532936802053</v>
+        <v>0.02230125598360034</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1111794405.970972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4478168610.006735</v>
+        <v>3315035826.169048</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1396978437450064</v>
+        <v>0.1628662451766424</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02820785708809498</v>
+        <v>0.01907300378513965</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>95</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2239084413.841974</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3253019108.755389</v>
+        <v>3358572815.817863</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2167757071967185</v>
+        <v>0.1674841252628212</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05466373537057553</v>
+        <v>0.05157167772631307</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>123</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1626509676.878416</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_309.xlsx
+++ b/output/fit_clients/fit_round_309.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1555450705.849969</v>
+        <v>1655965246.54637</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1034107965246807</v>
+        <v>0.08352155043449552</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02813115409656035</v>
+        <v>0.04383261808235319</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2484160000.004936</v>
+        <v>2411644046.199759</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1331260722358552</v>
+        <v>0.1525728852349501</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03249934624540415</v>
+        <v>0.03188247601349167</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4967896085.043126</v>
+        <v>3555005118.28281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1080565809373701</v>
+        <v>0.1521340027890606</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02764749406398356</v>
+        <v>0.02720663674715456</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2953998620.824587</v>
+        <v>2969873285.223679</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09440696281060112</v>
+        <v>0.1057012008165554</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03874165867075278</v>
+        <v>0.04948692468130023</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2590946726.310533</v>
+        <v>2694053592.689767</v>
       </c>
       <c r="F6" t="n">
-        <v>0.100201931882903</v>
+        <v>0.1332269850246828</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04800190071138032</v>
+        <v>0.04469569524446956</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2261608699.22967</v>
+        <v>1938216801.655644</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09351954896704023</v>
+        <v>0.09018826158675013</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03657172893806984</v>
+        <v>0.04848704975065955</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2714169881.015886</v>
+        <v>2914319245.944837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1511019495282888</v>
+        <v>0.1611276762697925</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02488074950197888</v>
+        <v>0.03009089703139845</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2140797921.02745</v>
+        <v>1675473263.46397</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1691537160607248</v>
+        <v>0.156642560926324</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03555799297612059</v>
+        <v>0.03408837354111525</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4290047387.923357</v>
+        <v>3724771523.251824</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1809970097350435</v>
+        <v>0.162181481786849</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03316025257065008</v>
+        <v>0.0413681865681426</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4198106867.5395</v>
+        <v>3576292379.369768</v>
       </c>
       <c r="F11" t="n">
-        <v>0.125835653437379</v>
+        <v>0.1687982937593941</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04983819409048221</v>
+        <v>0.04171022384527241</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2247168219.077508</v>
+        <v>2816272623.106737</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1524216527127797</v>
+        <v>0.1768957840040932</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04897484560011019</v>
+        <v>0.04720199804227996</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4864096688.717688</v>
+        <v>5096523594.419085</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06132846991423756</v>
+        <v>0.0873912637497523</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01901007434356894</v>
+        <v>0.02242331406174274</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2859586367.870821</v>
+        <v>3121747260.535523</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1401620275209969</v>
+        <v>0.1662962678054215</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03321705606183503</v>
+        <v>0.03495585293471146</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1371043133.930454</v>
+        <v>1377468490.950736</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08246933769085964</v>
+        <v>0.09969828677578275</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04223819293735517</v>
+        <v>0.03489318174833733</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2130959023.968582</v>
+        <v>2630226695.17043</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1141949514712979</v>
+        <v>0.08642110032149765</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04330279663736415</v>
+        <v>0.0360142731146685</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5059687722.040504</v>
+        <v>3721733362.057487</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1378898677729658</v>
+        <v>0.1746863981712982</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04637296029830201</v>
+        <v>0.04671560996143925</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3508695591.963351</v>
+        <v>2723123236.929264</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1462370268489019</v>
+        <v>0.140334226825557</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02370890912492481</v>
+        <v>0.03227415274880904</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>962547008.8831705</v>
+        <v>1071988518.358003</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1480276777279958</v>
+        <v>0.1500021696703926</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02239242288757508</v>
+        <v>0.02681590693780221</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2086638521.817648</v>
+        <v>2142760352.562541</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1617788922449884</v>
+        <v>0.09738243971145989</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02231434690632332</v>
+        <v>0.02330483978877411</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2496885691.988995</v>
+        <v>1931015570.866939</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08143272188646544</v>
+        <v>0.07790481860417747</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03919048873620486</v>
+        <v>0.03773486512717661</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3655434487.813625</v>
+        <v>2782985869.766899</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09766980183720318</v>
+        <v>0.1020222598584188</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05087874348402999</v>
+        <v>0.04142049674879699</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1222983412.898284</v>
+        <v>1259218373.295941</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1179318020075836</v>
+        <v>0.1523419189317422</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03716379954416588</v>
+        <v>0.05449198179072094</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3854511526.894149</v>
+        <v>3782746023.278394</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1353126967094732</v>
+        <v>0.118101594957549</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03591414811654414</v>
+        <v>0.02821911709607567</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1314511244.608478</v>
+        <v>1128831949.885247</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1041895100635674</v>
+        <v>0.1009383646279595</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0258922174967483</v>
+        <v>0.02451719348537989</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1148491899.946038</v>
+        <v>1166767699.065112</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08075795387121067</v>
+        <v>0.09673114171294779</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0252406014759831</v>
+        <v>0.03589201160061542</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4058082270.614419</v>
+        <v>3605695786.251962</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1002306455955951</v>
+        <v>0.1303686419481266</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02519398706388093</v>
+        <v>0.02122566074385103</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3616235980.181901</v>
+        <v>3026790862.172138</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1020120508553901</v>
+        <v>0.1343921539651169</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0460733669608687</v>
+        <v>0.04713070397267073</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5509573586.55201</v>
+        <v>3664523337.469984</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1486963729278691</v>
+        <v>0.1154570142580483</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02812902976170329</v>
+        <v>0.03945820182803018</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2102182063.094028</v>
+        <v>1648613318.571766</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09622913535620034</v>
+        <v>0.1072001369362827</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02661346315778158</v>
+        <v>0.03878056199600295</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>946608343.9716883</v>
+        <v>1493608629.134431</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06943844069739484</v>
+        <v>0.1026295599711552</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05021857787031137</v>
+        <v>0.04620697091847334</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1803824981.327435</v>
+        <v>1666601133.804992</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09329588592862356</v>
+        <v>0.1042349467139123</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02383126257305938</v>
+        <v>0.03180477176520298</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2656191849.123636</v>
+        <v>2550096523.404782</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1646038907970554</v>
+        <v>0.1471437130791896</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04508220434082006</v>
+        <v>0.05479067190875114</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1367075439.919044</v>
+        <v>1410648902.65459</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0917009226526332</v>
+        <v>0.1176618534771608</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02452569549613953</v>
+        <v>0.02072684522437547</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1225745540.304855</v>
+        <v>1223582797.048603</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09324613859782394</v>
+        <v>0.1026964239632791</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0288998347457369</v>
+        <v>0.03174950681272441</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2891133209.109214</v>
+        <v>2638053596.754367</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1166859908695495</v>
+        <v>0.1270994884299343</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01782853519483596</v>
+        <v>0.02301393019259647</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1889073072.381127</v>
+        <v>2907276705.903766</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1051994867891237</v>
+        <v>0.1049705647698946</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03000680899013637</v>
+        <v>0.03695324506740226</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2131902515.728315</v>
+        <v>1643608475.605897</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1180827443410201</v>
+        <v>0.08349943032482854</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03414638344544436</v>
+        <v>0.02409937613575393</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1409551033.52614</v>
+        <v>1610175754.069431</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1525096154052818</v>
+        <v>0.1935927478126037</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02691917384743767</v>
+        <v>0.02825342067049739</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1720926429.805388</v>
+        <v>1514676244.108907</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09900608440322022</v>
+        <v>0.1428230047452259</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04696220091847987</v>
+        <v>0.04813923037006894</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2596982900.898475</v>
+        <v>2805728097.950721</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1416510396112526</v>
+        <v>0.1005004459087373</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03226018055347429</v>
+        <v>0.04281619342821751</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3597978641.037407</v>
+        <v>4044958871.675458</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0916893256049949</v>
+        <v>0.1021421958516901</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04131425673649106</v>
+        <v>0.02932386805557753</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2241108980.126153</v>
+        <v>2634231755.964288</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1841812618918667</v>
+        <v>0.1647734149635272</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01950107445932119</v>
+        <v>0.0258297151607066</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2343483835.887317</v>
+        <v>1474109342.136101</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07984785604356034</v>
+        <v>0.0682581718881644</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03233420318543815</v>
+        <v>0.02693466672215581</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1700763125.926518</v>
+        <v>1885659583.684203</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1182896795572413</v>
+        <v>0.1709489141927406</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05175933666983746</v>
+        <v>0.05162225893617872</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4348434340.975549</v>
+        <v>3543292063.721215</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1521955549411936</v>
+        <v>0.1481116852337429</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06013689171985095</v>
+        <v>0.05769841434233303</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4730454282.102491</v>
+        <v>4643636848.532068</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1959346392006915</v>
+        <v>0.1721602968266135</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04012033744360246</v>
+        <v>0.03659394011119495</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4553735004.353978</v>
+        <v>3614632213.976152</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08994361604513063</v>
+        <v>0.09121177369649083</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02765865598267679</v>
+        <v>0.02962408070876469</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1405432980.383245</v>
+        <v>1961737849.19069</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1696886709719381</v>
+        <v>0.1240754140885991</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03234745171113384</v>
+        <v>0.0318156687780571</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2651009374.091989</v>
+        <v>3612172250.313262</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1659520981627615</v>
+        <v>0.154895136687402</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04431526212201135</v>
+        <v>0.04701455664553122</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>950296092.5325357</v>
+        <v>1032184953.894984</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1697871069777367</v>
+        <v>0.1321452086559638</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04376779970641551</v>
+        <v>0.03548405848351385</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4312535535.671525</v>
+        <v>4813980089.281981</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1167787191987427</v>
+        <v>0.1328880261956434</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04435136355071907</v>
+        <v>0.05947187370448791</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3081511230.14699</v>
+        <v>2616451354.885934</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1272793273109035</v>
+        <v>0.1722413900823425</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02736286522058375</v>
+        <v>0.02951288438351238</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4422459459.606518</v>
+        <v>3832204084.191487</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1528335623439267</v>
+        <v>0.1508138552153139</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04547127471404436</v>
+        <v>0.04098015598068754</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3117408001.596593</v>
+        <v>4105954404.609938</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1640597990839344</v>
+        <v>0.1760395469920793</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02409856983468624</v>
+        <v>0.03184674811613346</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1571083302.475869</v>
+        <v>1756927051.200975</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1089097136949333</v>
+        <v>0.1368010807673725</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04920687101746759</v>
+        <v>0.05267250155133988</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3061169048.057938</v>
+        <v>3301163361.078994</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1477823016841274</v>
+        <v>0.1157971454193632</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01768108526548655</v>
+        <v>0.02237544511437233</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1843578916.883666</v>
+        <v>1419276297.325583</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1574897742223613</v>
+        <v>0.1361510250562654</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03489542152522038</v>
+        <v>0.02708661267359055</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3976559536.944686</v>
+        <v>3942976542.582065</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08562118562865512</v>
+        <v>0.1246779548400055</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03579045292034675</v>
+        <v>0.03617424006697809</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3017045504.043799</v>
+        <v>2338509203.718188</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1411184673615</v>
+        <v>0.1317503233209805</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02750904095627489</v>
+        <v>0.03022791953692298</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2838816678.32539</v>
+        <v>2448701431.539565</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1412466103296133</v>
+        <v>0.1550405741657502</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02504620815048151</v>
+        <v>0.02451363436348793</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1601993489.830757</v>
+        <v>1565911581.664938</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1263789149831235</v>
+        <v>0.159598935666522</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0380799858708397</v>
+        <v>0.0436161430796449</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4579865585.695943</v>
+        <v>4167437815.358121</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09480664345397502</v>
+        <v>0.09502223038918717</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0330265333363716</v>
+        <v>0.03115320958406256</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4881985557.700217</v>
+        <v>3479625626.669725</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1226659129589932</v>
+        <v>0.1630068969438784</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02529981335610097</v>
+        <v>0.02559197580195266</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5461037377.728771</v>
+        <v>5825249686.564666</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1733257605912359</v>
+        <v>0.1284546995316541</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01972745283200725</v>
+        <v>0.03043699951566602</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4067045988.926934</v>
+        <v>4688728367.571457</v>
       </c>
       <c r="F66" t="n">
-        <v>0.11377606974902</v>
+        <v>0.1278083423584871</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04058862226239827</v>
+        <v>0.05127015424236209</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2719993031.551664</v>
+        <v>3305048612.494593</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09128260926317247</v>
+        <v>0.07264495786454098</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03766746724392266</v>
+        <v>0.03853252648930276</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4418652401.5921</v>
+        <v>4023162209.956429</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1159184225109807</v>
+        <v>0.1271505719428445</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03226846461212024</v>
+        <v>0.04502280025120065</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1848332812.460121</v>
+        <v>2310533957.33001</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1621678814634762</v>
+        <v>0.1262633180902962</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04456363989464395</v>
+        <v>0.05340122849821386</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2939088318.584817</v>
+        <v>3582906074.24013</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09249202947425843</v>
+        <v>0.06324264735901047</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03355135616701092</v>
+        <v>0.04289766226902858</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5294224913.637647</v>
+        <v>5418438235.623303</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1559402490836744</v>
+        <v>0.1642916484056963</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02983039237389312</v>
+        <v>0.02621726718138995</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1976310544.294028</v>
+        <v>1937633673.417904</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08549577669341163</v>
+        <v>0.07775146592118103</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03381883699008831</v>
+        <v>0.04081382474470085</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2580941285.530271</v>
+        <v>2900779974.761784</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09653253779722842</v>
+        <v>0.07107061490897758</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03984180684823975</v>
+        <v>0.04301385645055378</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3603864537.059806</v>
+        <v>3097401448.717266</v>
       </c>
       <c r="F74" t="n">
-        <v>0.144998036819535</v>
+        <v>0.1573154838647985</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02687878879893626</v>
+        <v>0.02197766469627356</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2125543394.370071</v>
+        <v>2128195156.900047</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1084286298990413</v>
+        <v>0.1452004170030738</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02643477356648017</v>
+        <v>0.03333336486904045</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3335541130.286601</v>
+        <v>5182737643.614672</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08690326209304323</v>
+        <v>0.1219362062749733</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02892981365313417</v>
+        <v>0.02822344009319943</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1989212909.445879</v>
+        <v>1459755021.91888</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1489750138690314</v>
+        <v>0.1740954662654269</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02346974054905366</v>
+        <v>0.02626946646158911</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3324341498.505658</v>
+        <v>3115004179.090641</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1164895846976769</v>
+        <v>0.102755938671289</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05240890177878394</v>
+        <v>0.04031304775521723</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1780963788.277001</v>
+        <v>1769445170.050868</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1264932863655648</v>
+        <v>0.1356491135084581</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02919045081728628</v>
+        <v>0.03353701821046433</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3785600595.786058</v>
+        <v>3733811864.925914</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07346652154197209</v>
+        <v>0.1077213936669714</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0334446074576287</v>
+        <v>0.02667332156079461</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3405746861.346755</v>
+        <v>3289752346.630084</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1258656495239389</v>
+        <v>0.100991573393882</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02095277695917786</v>
+        <v>0.02080566266771692</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5415165358.720415</v>
+        <v>5093424993.802053</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1814953724137916</v>
+        <v>0.1328249294353747</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02961038712526803</v>
+        <v>0.02126899299720129</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1604374284.29919</v>
+        <v>2471017475.272544</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1057645168432493</v>
+        <v>0.1574014103755797</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03386315868001574</v>
+        <v>0.03029051570025127</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2093944122.578478</v>
+        <v>2149105022.279309</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08429091636002105</v>
+        <v>0.0819327360388834</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03215915811045503</v>
+        <v>0.03728718759086637</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2370974342.901947</v>
+        <v>3678115421.895414</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1780393944764161</v>
+        <v>0.1115347246705383</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04416705312798202</v>
+        <v>0.0485849055854451</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2772995482.178547</v>
+        <v>2349341902.193328</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1282262557041409</v>
+        <v>0.1131284314941694</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01935535013952538</v>
+        <v>0.01952757700566365</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1109052603.420748</v>
+        <v>1431238101.572211</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1558804404728144</v>
+        <v>0.1493878144312664</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04425884349025614</v>
+        <v>0.02911401595479188</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2267386523.724817</v>
+        <v>2799594230.093461</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1645697785869403</v>
+        <v>0.1753860431857278</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03752902859073617</v>
+        <v>0.02644228138796548</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2840734650.4224</v>
+        <v>2568940228.284966</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1209302403939997</v>
+        <v>0.1193192810807406</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03207733154638234</v>
+        <v>0.03786957032757359</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1531554176.11904</v>
+        <v>1334500693.698771</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0845265014778049</v>
+        <v>0.08970048712338695</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04883715306357703</v>
+        <v>0.0542282590283872</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1698950066.021837</v>
+        <v>1513281152.766954</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1306599883389643</v>
+        <v>0.1563027170962293</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05196061896156735</v>
+        <v>0.05472070873362796</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1864553063.860105</v>
+        <v>1895400623.90912</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0803158446892331</v>
+        <v>0.09457657057159437</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03612188498141088</v>
+        <v>0.04319768013255779</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3341261635.708692</v>
+        <v>4162549753.443613</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0929684571339703</v>
+        <v>0.1366477133734058</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04061241826295942</v>
+        <v>0.03557276201770722</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2329941117.866861</v>
+        <v>1827936759.28418</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1361555053830472</v>
+        <v>0.165344890921288</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03561873347046962</v>
+        <v>0.04188762189427263</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2304005747.162478</v>
+        <v>3126226018.814057</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1174431436631754</v>
+        <v>0.1148744857191385</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04349085760569948</v>
+        <v>0.04719234875070038</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1939504933.933137</v>
+        <v>2137447496.931801</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1217295895583277</v>
+        <v>0.1035365318959815</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04020596496960877</v>
+        <v>0.04582948217865088</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4641112910.274425</v>
+        <v>5112291916.924431</v>
       </c>
       <c r="F97" t="n">
-        <v>0.164606610192464</v>
+        <v>0.1255039035927848</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01858929238886392</v>
+        <v>0.02275821784544887</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3008308321.443262</v>
+        <v>2453503018.276756</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1166593440325128</v>
+        <v>0.09110404083612153</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03049696378648708</v>
+        <v>0.03262164824000811</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2351303451.910965</v>
+        <v>3017901332.943467</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1055647944710165</v>
+        <v>0.1094004735262704</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02230125598360034</v>
+        <v>0.0328126302751164</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3315035826.169048</v>
+        <v>3906356928.747633</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1628662451766424</v>
+        <v>0.1736066000119391</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01907300378513965</v>
+        <v>0.0221179284896847</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3358572815.817863</v>
+        <v>2517977199.646637</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1674841252628212</v>
+        <v>0.1950552662923094</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05157167772631307</v>
+        <v>0.05120592575396735</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_309.xlsx
+++ b/output/fit_clients/fit_round_309.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1655965246.54637</v>
+        <v>2447834798.661571</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08352155043449552</v>
+        <v>0.09748020957934267</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04383261808235319</v>
+        <v>0.04504284748155339</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2411644046.199759</v>
+        <v>1709492462.801011</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1525728852349501</v>
+        <v>0.1305370312025278</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03188247601349167</v>
+        <v>0.04134655004165557</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3555005118.28281</v>
+        <v>3991770357.36697</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1521340027890606</v>
+        <v>0.1046343492070212</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02720663674715456</v>
+        <v>0.03195671976628818</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J4" t="n">
+        <v>309</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2969873285.223679</v>
+        <v>2692913783.024247</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1057012008165554</v>
+        <v>0.1088088094952828</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04948692468130023</v>
+        <v>0.0402134983256783</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>307</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2694053592.689767</v>
+        <v>2010966049.748395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1332269850246828</v>
+        <v>0.1414364414083209</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04469569524446956</v>
+        <v>0.04744248100887993</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1938216801.655644</v>
+        <v>2154110656.503213</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09018826158675013</v>
+        <v>0.09727450788285279</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04848704975065955</v>
+        <v>0.03353301399553721</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2914319245.944837</v>
+        <v>3691621360.989479</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1611276762697925</v>
+        <v>0.2202649156274494</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03009089703139845</v>
+        <v>0.02195163355885492</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>83</v>
+      </c>
+      <c r="J8" t="n">
+        <v>309</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1675473263.46397</v>
+        <v>1805124510.182529</v>
       </c>
       <c r="F9" t="n">
-        <v>0.156642560926324</v>
+        <v>0.1882682886151382</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03408837354111525</v>
+        <v>0.02770345892172151</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3724771523.251824</v>
+        <v>5590325751.371385</v>
       </c>
       <c r="F10" t="n">
-        <v>0.162181481786849</v>
+        <v>0.1627430592813796</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0413681865681426</v>
+        <v>0.03961012999675994</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>271</v>
+      </c>
+      <c r="J10" t="n">
+        <v>309</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +816,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3576292379.369768</v>
+        <v>2720689628.486732</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1687982937593941</v>
+        <v>0.1200861112401748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04171022384527241</v>
+        <v>0.04551784018260286</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>124</v>
+      </c>
+      <c r="J11" t="n">
+        <v>308</v>
+      </c>
+      <c r="K11" t="n">
+        <v>55.67923631501371</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +847,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2816272623.106737</v>
+        <v>2373009275.268257</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1768957840040932</v>
+        <v>0.1726651281065157</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04720199804227996</v>
+        <v>0.04119636533371605</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="n">
+        <v>43.89813003935847</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5096523594.419085</v>
+        <v>4091244799.288186</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0873912637497523</v>
+        <v>0.06551400641812946</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02242331406174274</v>
+        <v>0.01987784283234597</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>160</v>
+      </c>
+      <c r="J13" t="n">
+        <v>308</v>
+      </c>
+      <c r="K13" t="n">
+        <v>78.8234019441785</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3121747260.535523</v>
+        <v>2584714892.352058</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1662962678054215</v>
+        <v>0.1427501476282124</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03495585293471146</v>
+        <v>0.03307532400253003</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>64</v>
+      </c>
+      <c r="J14" t="n">
+        <v>308</v>
+      </c>
+      <c r="K14" t="n">
+        <v>50.43202583177721</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1377468490.950736</v>
+        <v>1316640509.46644</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09969828677578275</v>
+        <v>0.07288068857663108</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03489318174833733</v>
+        <v>0.03307096663917608</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2630226695.17043</v>
+        <v>2026327377.402671</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08642110032149765</v>
+        <v>0.1139484971079317</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0360142731146685</v>
+        <v>0.03699381557126701</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3721733362.057487</v>
+        <v>3297240066.278557</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1746863981712982</v>
+        <v>0.1579526095732078</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04671560996143925</v>
+        <v>0.0330686372295855</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>146</v>
+      </c>
+      <c r="J17" t="n">
+        <v>307</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2723123236.929264</v>
+        <v>3736824013.636982</v>
       </c>
       <c r="F18" t="n">
-        <v>0.140334226825557</v>
+        <v>0.1481532689347762</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03227415274880904</v>
+        <v>0.02448620010735338</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>309</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1071988518.358003</v>
+        <v>963830080.1862319</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1500021696703926</v>
+        <v>0.1358054722869166</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02681590693780221</v>
+        <v>0.02022630160995288</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2142760352.562541</v>
+        <v>1867378228.027512</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09738243971145989</v>
+        <v>0.1160237455741245</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02330483978877411</v>
+        <v>0.02501385761407308</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1931015570.866939</v>
+        <v>2325876660.478988</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07790481860417747</v>
+        <v>0.09506316320473455</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03773486512717661</v>
+        <v>0.03308327168044618</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2782985869.766899</v>
+        <v>3806354616.895146</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1020222598584188</v>
+        <v>0.1329387103913987</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04142049674879699</v>
+        <v>0.05586058166492445</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>309</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1259218373.295941</v>
+        <v>1254977051.771068</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1523419189317422</v>
+        <v>0.1760408323371939</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05449198179072094</v>
+        <v>0.04361421196181173</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3782746023.278394</v>
+        <v>4133886573.281734</v>
       </c>
       <c r="F24" t="n">
-        <v>0.118101594957549</v>
+        <v>0.1053673615568955</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02821911709607567</v>
+        <v>0.02860137557814124</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>91</v>
+      </c>
+      <c r="J24" t="n">
+        <v>309</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1128831949.885247</v>
+        <v>1241034645.084903</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1009383646279595</v>
+        <v>0.09896642878187664</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02451719348537989</v>
+        <v>0.02165488775407329</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1166767699.065112</v>
+        <v>1128091607.20244</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09673114171294779</v>
+        <v>0.1014453889249876</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03589201160061542</v>
+        <v>0.03065897017317384</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3605695786.251962</v>
+        <v>4681969786.180662</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1303686419481266</v>
+        <v>0.1464416105378908</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02122566074385103</v>
+        <v>0.0244529649751045</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>128</v>
+      </c>
+      <c r="J27" t="n">
+        <v>309</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3026790862.172138</v>
+        <v>3851173854.840747</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1343921539651169</v>
+        <v>0.1048079841622868</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04713070397267073</v>
+        <v>0.0447154234328299</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>65</v>
+      </c>
+      <c r="J28" t="n">
+        <v>309</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3664523337.469984</v>
+        <v>5487839222.399869</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1154570142580483</v>
+        <v>0.126299271029012</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03945820182803018</v>
+        <v>0.03587107109263366</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>288</v>
+      </c>
+      <c r="J29" t="n">
+        <v>309</v>
+      </c>
+      <c r="K29" t="n">
+        <v>80.82860019867147</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1648613318.571766</v>
+        <v>1990106646.534271</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1072001369362827</v>
+        <v>0.09157523418326688</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03878056199600295</v>
+        <v>0.03946729015203618</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1493608629.134431</v>
+        <v>1069927381.025863</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1026295599711552</v>
+        <v>0.06895359792078294</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04620697091847334</v>
+        <v>0.05075418012149439</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1666601133.804992</v>
+        <v>1436927385.503255</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1042349467139123</v>
+        <v>0.1138739728328652</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03180477176520298</v>
+        <v>0.0369844244021607</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2550096523.404782</v>
+        <v>2133433928.274924</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1471437130791896</v>
+        <v>0.1895473116680045</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05479067190875114</v>
+        <v>0.04483152481839327</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1410648902.65459</v>
+        <v>1165869984.147177</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1176618534771608</v>
+        <v>0.1214725351487226</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02072684522437547</v>
+        <v>0.0237413903808147</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1223582797.048603</v>
+        <v>1324738672.341342</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1026964239632791</v>
+        <v>0.07623096633366348</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03174950681272441</v>
+        <v>0.03008975497287944</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2638053596.754367</v>
+        <v>2189152626.953784</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1270994884299343</v>
+        <v>0.1795102959926757</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02301393019259647</v>
+        <v>0.01996162870212348</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2907276705.903766</v>
+        <v>1933573355.232558</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1049705647698946</v>
+        <v>0.08952576802457164</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03695324506740226</v>
+        <v>0.02571593589894057</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1643608475.605897</v>
+        <v>1885556332.755666</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08349943032482854</v>
+        <v>0.07691976262481906</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02409937613575393</v>
+        <v>0.02883466031680498</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1610175754.069431</v>
+        <v>1573412988.047063</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1935927478126037</v>
+        <v>0.1497677013239557</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02825342067049739</v>
+        <v>0.03036227319206121</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1514676244.108907</v>
+        <v>1282839030.625658</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1428230047452259</v>
+        <v>0.1237205548631912</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04813923037006894</v>
+        <v>0.05164821870628088</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2805728097.950721</v>
+        <v>2273143793.439998</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1005004459087373</v>
+        <v>0.1417803111781975</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04281619342821751</v>
+        <v>0.03718165685659141</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4044958871.675458</v>
+        <v>3739625461.409235</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1021421958516901</v>
+        <v>0.1215456023733032</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02932386805557753</v>
+        <v>0.03078527759441627</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>127</v>
+      </c>
+      <c r="J42" t="n">
+        <v>309</v>
+      </c>
+      <c r="K42" t="n">
+        <v>93.01743513543518</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2634231755.964288</v>
+        <v>1963348073.834178</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1647734149635272</v>
+        <v>0.1451881249177827</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0258297151607066</v>
+        <v>0.0242857654092829</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1474109342.136101</v>
+        <v>2104030330.86007</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0682581718881644</v>
+        <v>0.08913437223552957</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02693466672215581</v>
+        <v>0.03264878506026371</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1885659583.684203</v>
+        <v>2092328779.075124</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1709489141927406</v>
+        <v>0.1178418833864967</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05162225893617872</v>
+        <v>0.03964115546892902</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3543292063.721215</v>
+        <v>5094486707.79948</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1481116852337429</v>
+        <v>0.1628442675176089</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05769841434233303</v>
+        <v>0.03775041706530233</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>185</v>
+      </c>
+      <c r="J46" t="n">
+        <v>308</v>
+      </c>
+      <c r="K46" t="n">
+        <v>79.03187888957261</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4643636848.532068</v>
+        <v>3300986642.789365</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721602968266135</v>
+        <v>0.1553083635130832</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03659394011119495</v>
+        <v>0.05210907355191192</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>138</v>
+      </c>
+      <c r="J47" t="n">
+        <v>308</v>
+      </c>
+      <c r="K47" t="n">
+        <v>58.97821770098633</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3614632213.976152</v>
+        <v>3394854406.31436</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09121177369649083</v>
+        <v>0.1087409898364</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02962408070876469</v>
+        <v>0.03170397972125598</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>155</v>
+      </c>
+      <c r="J48" t="n">
+        <v>308</v>
+      </c>
+      <c r="K48" t="n">
+        <v>77.12553974813174</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1961737849.19069</v>
+        <v>1196841914.612803</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1240754140885991</v>
+        <v>0.1757717955258062</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0318156687780571</v>
+        <v>0.03250617581258353</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3612172250.313262</v>
+        <v>2735417984.902949</v>
       </c>
       <c r="F50" t="n">
-        <v>0.154895136687402</v>
+        <v>0.1108276685302797</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04701455664553122</v>
+        <v>0.04533923919373516</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>98</v>
+      </c>
+      <c r="J50" t="n">
+        <v>308</v>
+      </c>
+      <c r="K50" t="n">
+        <v>52.06907818357931</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1032184953.894984</v>
+        <v>1296536815.60287</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1321452086559638</v>
+        <v>0.1405971946809999</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03548405848351385</v>
+        <v>0.0505357494419465</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4813980089.281981</v>
+        <v>3364966216.572064</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1328880261956434</v>
+        <v>0.100729637216965</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05947187370448791</v>
+        <v>0.05694380911974507</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>189</v>
+      </c>
+      <c r="J52" t="n">
+        <v>308</v>
+      </c>
+      <c r="K52" t="n">
+        <v>70.36073408871744</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2616451354.885934</v>
+        <v>3180699126.89367</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1722413900823425</v>
+        <v>0.1738575804941864</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02951288438351238</v>
+        <v>0.03350113927798658</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>43</v>
+      </c>
+      <c r="J53" t="n">
+        <v>306</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3832204084.191487</v>
+        <v>3091734061.283762</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1508138552153139</v>
+        <v>0.123540879236467</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04098015598068754</v>
+        <v>0.03293192031436167</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>162</v>
+      </c>
+      <c r="J54" t="n">
+        <v>308</v>
+      </c>
+      <c r="K54" t="n">
+        <v>61.74779639970264</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4105954404.609938</v>
+        <v>3334453528.064203</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1760395469920793</v>
+        <v>0.1975078132370238</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03184674811613346</v>
+        <v>0.0233852311060336</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>142</v>
+      </c>
+      <c r="J55" t="n">
+        <v>306</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1756927051.200975</v>
+        <v>1620077100.392598</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1368010807673725</v>
+        <v>0.115918924406468</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05267250155133988</v>
+        <v>0.04001803305893581</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3301163361.078994</v>
+        <v>2891529608.536537</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1157971454193632</v>
+        <v>0.1416383326542623</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02237544511437233</v>
+        <v>0.02390986345844141</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>127</v>
+      </c>
+      <c r="J57" t="n">
+        <v>307</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1419276297.325583</v>
+        <v>1729842899.480639</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1361510250562654</v>
+        <v>0.2010237564407238</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02708661267359055</v>
+        <v>0.03032638657010978</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3942976542.582065</v>
+        <v>3705920769.473621</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1246779548400055</v>
+        <v>0.1195775938963602</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03617424006697809</v>
+        <v>0.04798391119463289</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>149</v>
+      </c>
+      <c r="J59" t="n">
+        <v>309</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2338509203.718188</v>
+        <v>3560719318.416981</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1317503233209805</v>
+        <v>0.1538128178346028</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03022791953692298</v>
+        <v>0.02538636771995621</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>52</v>
+      </c>
+      <c r="J60" t="n">
+        <v>309</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2448701431.539565</v>
+        <v>3263561919.350384</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1550405741657502</v>
+        <v>0.15085326272767</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02451363436348793</v>
+        <v>0.03193504279729896</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1565911581.664938</v>
+        <v>1743305147.155762</v>
       </c>
       <c r="F62" t="n">
-        <v>0.159598935666522</v>
+        <v>0.1487320247202248</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0436161430796449</v>
+        <v>0.0477412479757891</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4167437815.358121</v>
+        <v>3653788120.552403</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09502223038918717</v>
+        <v>0.08110101250319504</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03115320958406256</v>
+        <v>0.03307457680719108</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>150</v>
+      </c>
+      <c r="J63" t="n">
+        <v>309</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3479625626.669725</v>
+        <v>4699762969.364282</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1630068969438784</v>
+        <v>0.1233662155534207</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02559197580195266</v>
+        <v>0.03495761129081607</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>152</v>
+      </c>
+      <c r="J64" t="n">
+        <v>308</v>
+      </c>
+      <c r="K64" t="n">
+        <v>77.96426461098892</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5825249686.564666</v>
+        <v>5633656657.844361</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1284546995316541</v>
+        <v>0.1052194455772164</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03043699951566602</v>
+        <v>0.02901457792371779</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>245</v>
+      </c>
+      <c r="J65" t="n">
+        <v>308</v>
+      </c>
+      <c r="K65" t="n">
+        <v>79.30371513380683</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4688728367.571457</v>
+        <v>4836594578.874597</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1278083423584871</v>
+        <v>0.1411532584313088</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05127015424236209</v>
+        <v>0.03261858912555037</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>152</v>
+      </c>
+      <c r="J66" t="n">
+        <v>309</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3305048612.494593</v>
+        <v>2295807561.674348</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07264495786454098</v>
+        <v>0.07676262036205329</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03853252648930276</v>
+        <v>0.03999356807386369</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4023162209.956429</v>
+        <v>4617925855.727131</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1271505719428445</v>
+        <v>0.1492622134424506</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04502280025120065</v>
+        <v>0.03482992782317778</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>166</v>
+      </c>
+      <c r="J68" t="n">
+        <v>308</v>
+      </c>
+      <c r="K68" t="n">
+        <v>78.84674145548558</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2310533957.33001</v>
+        <v>2153622423.010179</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1262633180902962</v>
+        <v>0.1192604302516136</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05340122849821386</v>
+        <v>0.05660116415236999</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3582906074.24013</v>
+        <v>3489852576.700708</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06324264735901047</v>
+        <v>0.09793511115191851</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04289766226902858</v>
+        <v>0.03512317321783363</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>303</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5418438235.623303</v>
+        <v>4487101245.686584</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1642916484056963</v>
+        <v>0.1302806463655902</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02621726718138995</v>
+        <v>0.03072415732466592</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>229</v>
+      </c>
+      <c r="J71" t="n">
+        <v>309</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1937633673.417904</v>
+        <v>1684987017.477284</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07775146592118103</v>
+        <v>0.06711874760584488</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04081382474470085</v>
+        <v>0.04788049750836118</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3016,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2900779974.761784</v>
+        <v>3109915888.650183</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07107061490897758</v>
+        <v>0.0886095634358475</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04301385645055378</v>
+        <v>0.04597237277110234</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>22</v>
+      </c>
+      <c r="J73" t="n">
+        <v>309</v>
+      </c>
+      <c r="K73" t="n">
+        <v>82.51224639405748</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3097401448.717266</v>
+        <v>2647043297.659071</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1573154838647985</v>
+        <v>0.1275590230228439</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02197766469627356</v>
+        <v>0.02905793979429357</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2128195156.900047</v>
+        <v>1750968818.486805</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1452004170030738</v>
+        <v>0.1480815296041365</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03333336486904045</v>
+        <v>0.03115965661008537</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5182737643.614672</v>
+        <v>5170260964.618028</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1219362062749733</v>
+        <v>0.09916805484639618</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02822344009319943</v>
+        <v>0.02960638978993809</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>145</v>
+      </c>
+      <c r="J76" t="n">
+        <v>309</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1459755021.91888</v>
+        <v>1666613462.944011</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1740954662654269</v>
+        <v>0.1375591634810704</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02626946646158911</v>
+        <v>0.0264062806052114</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3115004179.090641</v>
+        <v>3779494971.909739</v>
       </c>
       <c r="F78" t="n">
-        <v>0.102755938671289</v>
+        <v>0.1253450694244697</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04031304775521723</v>
+        <v>0.03890613676346757</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>153</v>
+      </c>
+      <c r="J78" t="n">
+        <v>309</v>
+      </c>
+      <c r="K78" t="n">
+        <v>81.54168387361163</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1769445170.050868</v>
+        <v>1718686617.829383</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1356491135084581</v>
+        <v>0.1138120439985218</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03353701821046433</v>
+        <v>0.02472258754046391</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3733811864.925914</v>
+        <v>4852207299.792655</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1077213936669714</v>
+        <v>0.1039181371621093</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02667332156079461</v>
+        <v>0.03248839100262006</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>151</v>
+      </c>
+      <c r="J80" t="n">
+        <v>308</v>
+      </c>
+      <c r="K80" t="n">
+        <v>60.95024798565182</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3289752346.630084</v>
+        <v>4849378749.533474</v>
       </c>
       <c r="F81" t="n">
-        <v>0.100991573393882</v>
+        <v>0.1327832637589343</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02080566266771692</v>
+        <v>0.03078674181570156</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>142</v>
+      </c>
+      <c r="J81" t="n">
+        <v>309</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5093424993.802053</v>
+        <v>3552276670.741975</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1328249294353747</v>
+        <v>0.2176202100299499</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02126899299720129</v>
+        <v>0.02889079829493126</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>225</v>
+      </c>
+      <c r="J82" t="n">
+        <v>308</v>
+      </c>
+      <c r="K82" t="n">
+        <v>79.31091717907465</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2471017475.272544</v>
+        <v>2417974440.231619</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1574014103755797</v>
+        <v>0.108789332092151</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03029051570025127</v>
+        <v>0.04341544377118364</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2149105022.279309</v>
+        <v>2395091994.925088</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0819327360388834</v>
+        <v>0.08304974060516113</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03728718759086637</v>
+        <v>0.03959089696829463</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3678115421.895414</v>
+        <v>3004894301.769474</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1115347246705383</v>
+        <v>0.1588190069653007</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0485849055854451</v>
+        <v>0.03532868714992794</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2349341902.193328</v>
+        <v>2155469531.481483</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1131284314941694</v>
+        <v>0.1251712360359647</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01952757700566365</v>
+        <v>0.0172273731692641</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1431238101.572211</v>
+        <v>1436560800.37559</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1493878144312664</v>
+        <v>0.1270182745717699</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02911401595479188</v>
+        <v>0.0333322331974223</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2799594230.093461</v>
+        <v>2518670757.676255</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1753860431857278</v>
+        <v>0.1438065979921527</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02644228138796548</v>
+        <v>0.03473529120371859</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2568940228.284966</v>
+        <v>2396077494.233757</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1193192810807406</v>
+        <v>0.1207292615638899</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03786957032757359</v>
+        <v>0.03612934606360086</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1334500693.698771</v>
+        <v>1811706885.008372</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08970048712338695</v>
+        <v>0.09131569890804314</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0542282590283872</v>
+        <v>0.03989386692722146</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1513281152.766954</v>
+        <v>1860110305.973872</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1563027170962293</v>
+        <v>0.1643165808328931</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05472070873362796</v>
+        <v>0.05005084447493634</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1895400623.90912</v>
+        <v>2332332293.84777</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09457657057159437</v>
+        <v>0.1082793081347</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04319768013255779</v>
+        <v>0.0356523913986458</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4162549753.443613</v>
+        <v>3347661519.042041</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1366477133734058</v>
+        <v>0.1111624558494769</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03557276201770722</v>
+        <v>0.04577682510350468</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>138</v>
+      </c>
+      <c r="J93" t="n">
+        <v>307</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1827936759.28418</v>
+        <v>1892566954.69731</v>
       </c>
       <c r="F94" t="n">
-        <v>0.165344890921288</v>
+        <v>0.1357669474471839</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04188762189427263</v>
+        <v>0.04136892612082503</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3126226018.814057</v>
+        <v>2912112992.068546</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1148744857191385</v>
+        <v>0.09727700937810201</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04719234875070038</v>
+        <v>0.04261018145990844</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2137447496.931801</v>
+        <v>2004525486.744205</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1035365318959815</v>
+        <v>0.1117282225532925</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04582948217865088</v>
+        <v>0.03824519099060341</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5112291916.924431</v>
+        <v>4410266289.308102</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1255039035927848</v>
+        <v>0.1454778468536064</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02275821784544887</v>
+        <v>0.02176448792721537</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>156</v>
+      </c>
+      <c r="J97" t="n">
+        <v>309</v>
+      </c>
+      <c r="K97" t="n">
+        <v>80.94591753725619</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2453503018.276756</v>
+        <v>3032248996.562694</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09110404083612153</v>
+        <v>0.08672092151994404</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03262164824000811</v>
+        <v>0.03105276837599871</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>76</v>
+      </c>
+      <c r="J98" t="n">
+        <v>306</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3017901332.943467</v>
+        <v>2105913165.857995</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1094004735262704</v>
+        <v>0.1138231400961882</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0328126302751164</v>
+        <v>0.03556731145202287</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3906356928.747633</v>
+        <v>3478321633.336837</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1736066000119391</v>
+        <v>0.177715691828438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0221179284896847</v>
+        <v>0.0261293136774197</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>134</v>
+      </c>
+      <c r="J100" t="n">
+        <v>307</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2517977199.646637</v>
+        <v>2179775573.704895</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1950552662923094</v>
+        <v>0.1785092723222086</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05120592575396735</v>
+        <v>0.05693169709485893</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>301</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
